--- a/excel/1995/Report-1995-03-22.xlsx
+++ b/excel/1995/Report-1995-03-22.xlsx
@@ -1,84 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
-  </bookViews>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Report-1995-03-22" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Report-1995-03-22" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="139">
-  <si>
-    <t>recall_classification_date</t>
-  </si>
-  <si>
-    <t>product_type</t>
-  </si>
-  <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>recall_number</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>recalling_firm</t>
-  </si>
-  <si>
-    <t>manufacturer</t>
-  </si>
-  <si>
-    <t>recall_initiation_date</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>distribution</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="174">
+  <si>
+    <t>RECALL_CLASSIFICATION_DATE</t>
+  </si>
+  <si>
+    <t>PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>RECALL_NUMBER</t>
+  </si>
+  <si>
+    <t>PRODUCT</t>
+  </si>
+  <si>
+    <t>RECALLING_FIRM</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>RECALL_INITIALIZATION_DATE</t>
+  </si>
+  <si>
+    <t>REASON</t>
+  </si>
+  <si>
+    <t>VOLUME</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION</t>
   </si>
   <si>
     <t>1995-03-22</t>
   </si>
   <si>
-    <t>Drugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> II
-</t>
+    <t>N A</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t>d-086-5</t>
   </si>
   <si>
-    <t>Liquid Oxygen For Respiratory Therapy, In Size C, D, And E  Cylinders</t>
+    <t>Liquid Oxygen For Respiratory Therapy In Size C D And E Cylinders</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Texas Air Supply Home Medical Equipment, Inc</t>
-  </si>
-  <si>
-    <t>November 10, 1994</t>
-  </si>
-  <si>
-    <t>Current Good Manufacturing Practice Deficiencies</t>
-  </si>
-  <si>
-    <t>500 cylinders were distributed; firm estimates none remains
- on the market</t>
+    <t>Texas Air Supply Home Medical Equipment Inc</t>
+  </si>
+  <si>
+    <t>November 10 1994</t>
+  </si>
+  <si>
+    <t>Current Good Manufacturing Practice Deficiencie</t>
+  </si>
+  <si>
+    <t>500 Cylinders Were Distributed Firm Estimates None Remains On The Market</t>
   </si>
   <si>
     <t>Texas</t>
@@ -87,145 +82,148 @@
     <t>d-087-5</t>
   </si>
   <si>
-    <t>Medical Oxygen Cylinders, Sizes A, B, D, E, H, &amp; M</t>
-  </si>
-  <si>
-    <t>Metrolina Welders Supply, Inc</t>
-  </si>
-  <si>
-    <t>February 15, 1995</t>
-  </si>
-  <si>
-    <t>12 lots were distributed</t>
-  </si>
-  <si>
-    <t>North Carolina, South Carolina</t>
+    <t>Medical Oxygen Cylinders Sizes A B D E H M</t>
+  </si>
+  <si>
+    <t>Metrolina Welders Supply Inc</t>
+  </si>
+  <si>
+    <t>February 15 1995</t>
+  </si>
+  <si>
+    <t>12 Lots Were Distributed</t>
+  </si>
+  <si>
+    <t>North Carolina South Carolina</t>
   </si>
   <si>
     <t>d-088-5</t>
   </si>
   <si>
-    <t>Oxygen Compressed Usp, Compressed Medical Gas In Cylinders</t>
-  </si>
-  <si>
-    <t>Valley Welding Supply Company, Greensburg, Pennsylvania</t>
-  </si>
-  <si>
-    <t>March 1, 1995</t>
-  </si>
-  <si>
-    <t>131 units were distributed</t>
+    <t>Oxygen Compressed Usp Compressed Medical Gas In Cylinders</t>
+  </si>
+  <si>
+    <t>Valley Welding Supply Company Greensburg Pennsylvania</t>
+  </si>
+  <si>
+    <t>March 1 1995</t>
+  </si>
+  <si>
+    <t>131 Units Were Distributed</t>
   </si>
   <si>
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t xml:space="preserve"> III</t>
+    <t>Y</t>
   </si>
   <si>
     <t>d-085-5</t>
   </si>
   <si>
-    <t>Indocyanine Green Usp, A Prescription Bulk Pharmaceutical  Chemical</t>
-  </si>
-  <si>
-    <t>Eastman Kodak Company, Rochester, New York</t>
-  </si>
-  <si>
-    <t>October 18, 1993</t>
+    <t>Indocyanine Green Usp A Prescription Bulk Pharmaceutical Chemical</t>
+  </si>
+  <si>
+    <t>Eastman Kodak Company Rochester New York</t>
+  </si>
+  <si>
+    <t>October 18 1993</t>
   </si>
   <si>
     <t>Subpotenc</t>
   </si>
   <si>
-    <t>approximately 7,000 grams were distributed</t>
-  </si>
-  <si>
-    <t>Maryland, New Mexico</t>
+    <t>Approximately 7 000 Grams Were Distributed</t>
+  </si>
+  <si>
+    <t>Maryland New Mexico</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>d-089-5</t>
   </si>
   <si>
-    <t>Guaipax Pse Tablets (pseudophedrine Hcl 120 Mg And  Guaifenesin 600 Mg), Sustained Release, 100 Tablets, Rx,  Indicated For The Relief Of Nasal Congestion</t>
-  </si>
-  <si>
-    <t>Eon Laboratories Manufacturing, Inc</t>
-  </si>
-  <si>
-    <t>March 7, 1995</t>
-  </si>
-  <si>
-    <t>Product Does Not Meet Dissolution Specifications For The  Guaifenesin Ingredient</t>
-  </si>
-  <si>
-    <t>2,286 units of 100 tablets were distributed; firm estimates
- very little of the product remains on the market</t>
-  </si>
-  <si>
-    <t>Alabama, California, Connecticut, Florida, Georgia, Hawaii,  Iowa, Illinois, Minnesota, Missouri, Mississippi, North  Carolina, Nebraska, New Jersey, New York, Oklahoma, Ohio,  Oregon, South Carolina, Texas, Puerto Rico</t>
+    <t>Guaipax Pse Tablets Pseudophedrine Hcl 120 Mg And Guaifenesin 600 Mg Sustained Release 100 Tablets Rx Indicated For The Relief Of Nasal Congestion</t>
+  </si>
+  <si>
+    <t>Eon Laboratories Manufacturing Inc</t>
+  </si>
+  <si>
+    <t>March 7 1995</t>
+  </si>
+  <si>
+    <t>Product Does Not Meet Dissolution Specifications For The Guaifenesin Ingredien</t>
+  </si>
+  <si>
+    <t>2 286 Units Of 100 Tablets Were Distributed Firm Estimates Very Little Of The Product Remains On The Market</t>
+  </si>
+  <si>
+    <t>Alabama California Connecticut Florida Georgia Hawaii Iowa Illinois Minnesota Missouri Mississippi North Carolina Nebraska New Jersey New York Oklahoma Ohio Oregon South Carolina Texas Puerto Rico</t>
   </si>
   <si>
     <t>d-090-5</t>
   </si>
   <si>
-    <t>Triple Sulfa Vaginal Cream, Usp Administered Intravaginally,  Used In The Treatment Of Vaginal Infection, In 2</t>
-  </si>
-  <si>
-    <t>Clay Park Laboratories, Inc</t>
-  </si>
-  <si>
-    <t>February 1, 1995</t>
-  </si>
-  <si>
-    <t>Product Does Not Meet Ph Specifications</t>
-  </si>
-  <si>
-    <t>698,338 tubes were distributed</t>
-  </si>
-  <si>
-    <t>Nationwide, The Virgin Islands, West Indies, The Bahamas,  Bulgaria</t>
+    <t>Triple Sulfa Vaginal Cream Usp Administered Intravaginally Used In The Treatment Of Vaginal Infection In 2</t>
+  </si>
+  <si>
+    <t>Clay Park Laboratories Inc</t>
+  </si>
+  <si>
+    <t>February 1 1995</t>
+  </si>
+  <si>
+    <t>Product Does Not Meet Ph Specification</t>
+  </si>
+  <si>
+    <t>698 338 Tubes Were Distributed</t>
+  </si>
+  <si>
+    <t>Nationwide The Virgin Islands West Indies The Bahamas Bulgaria</t>
   </si>
   <si>
     <t>d-091-5</t>
   </si>
   <si>
-    <t>Nystatin/triamcinolone Acetonide Cream Usp, 120 G (4 Ounce)  And 1 Pound Plastic Jars, Used For The Treatment Of Topical  Yeast Infection, Under The Clay Park And Url Labels</t>
-  </si>
-  <si>
-    <t>February 21, 1995</t>
+    <t>Nystatin Triamcinolone Acetonide Cream Usp 120 G 4 Ounce And 1 Pound Plastic Jars Used For The Treatment Of Topical Yeast Infection Under The Clay Park And Url Labels</t>
+  </si>
+  <si>
+    <t>February 21 1995</t>
   </si>
   <si>
     <t>Superpotenc</t>
   </si>
   <si>
-    <t>approximately 7,312 4-ounce jars and 901 1-pound jars were
- distributed</t>
+    <t>Approximately 7 312 4 Ounce Jars And 901 1 Pound Jars Were Distributed</t>
   </si>
   <si>
     <t>Nationwide</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>d-092\093-5</t>
   </si>
   <si>
-    <t>(a) Fluocinolone Acetonide Cream 0</t>
-  </si>
-  <si>
-    <t>March 8, 1995</t>
-  </si>
-  <si>
-    <t>Potency Not Assured Through Expiration Date</t>
-  </si>
-  <si>
-    <t>(a) approximately 11,666 tubes; (b) 21,800 tubes were
- distributed</t>
-  </si>
-  <si>
-    <t>(a) Nationwide, St</t>
-  </si>
-  <si>
-    <t>Biologics</t>
+    <t>A Fluocinolone Acetonide Cream 0</t>
+  </si>
+  <si>
+    <t>March 8 1995</t>
+  </si>
+  <si>
+    <t>Potency Not Assured Through Expiration Dat</t>
+  </si>
+  <si>
+    <t>A Approximately 11 666 Tubes B 21 800 Tubes Were Distributed</t>
+  </si>
+  <si>
+    <t>A Nationwide St</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>b-197-5</t>
@@ -234,44 +232,40 @@
     <t>Red Blood Cells</t>
   </si>
   <si>
-    <t>North Jersey Blood Center, East Orange, New Jersey</t>
-  </si>
-  <si>
-    <t>July 26, 1994</t>
-  </si>
-  <si>
-    <t>Blood Product, Which Was Exposed To Unacceptable Shipping  Temperatures, Was Distributed.</t>
-  </si>
-  <si>
-    <t>1 unit</t>
+    <t>North Jersey Blood Center East Orange New Jersey</t>
+  </si>
+  <si>
+    <t>July 26 1994</t>
+  </si>
+  <si>
+    <t>Blood Product Which Was Exposed To Unacceptable Shipping Temperatures Was Distribute</t>
+  </si>
+  <si>
+    <t>1 Unit</t>
   </si>
   <si>
     <t>New Jersey</t>
   </si>
   <si>
-    <t>Devices</t>
-  </si>
-  <si>
     <t>z-397/402-5</t>
   </si>
   <si>
-    <t>Baxter Pharmaseal Spinal And Saddle Block Anaesthesia Trays  Containing 5 Cc Glass Syringes (b-d Glaspak #5293) With  Metal Hub Spinal Needles, Sterile, Single Use Only:   -7- (a) Spinal Anesthesia Tray With Spinal Anesthetic And Spinal  Needle, 22 Ga, Catalog #4500c;   (b) Spinal Anesthesia Tray With Spinal Anesthetic And Spinal  Needle, 25 Ga, Catalog #4510c;   (c) Spinal Anesthesia Tray With Spinal Anesthetic,  Epinephrine,and Spinal Needle 25 Ga, Catalog #4511c;  (d) Saddle Block Anesthesia Tray With Spinal Anesthetic,  Ephedrine Sulfate, And Spinal Needle, 25 Ga, Catalog #4518c;  (e) Custom Spinal Anesthesia Tray With Spinal Anesthetic,  And Spinal Needle, 22 Ga, Catalog #514504072;   (f) Custom Anesthesia Tray With Spinal Anesthetic And Spinal  Needle, 25 Ga, Catalog #6845141200</t>
-  </si>
-  <si>
-    <t>: Baxter Healthcare Corporation</t>
-  </si>
-  <si>
-    <t>Becton-dickinson, Franklin Lakes, New Jersey (syringe)</t>
-  </si>
-  <si>
-    <t>October 3, 1994</t>
-  </si>
-  <si>
-    <t>There Is A Potential For Leaking To Occur At The Connection  Between The 5cc Glass Syringe (b-d Glaspak #5293) And The  Metal Hub Spinal Needles</t>
-  </si>
-  <si>
-    <t>16,493 trays were distributed; firm estimated that 30% of
- the product remained on market at time of recall initiation</t>
+    <t>Baxter Pharmaseal Spinal And Saddle Block Anaesthesia Trays Containing 5 Cc Glass Syringes B D Glaspak 5293 With Metal Hub Spinal Needles Sterile Single Use Only 7 A Spinal Anesthesia Tray With Spinal Anesthetic And Spinal Needle 22 Ga Catalog 4500 C B Spinal Anesthesia Tray With Spinal Anesthetic And Spinal Needle 25 Ga Catalog 4510 C C Spinal Anesthesia Tray With Spinal Anesthetic Epinephrine And Spinal Needle 25 Ga Catalog 4511 C D Saddle Block Anesthesia Tray With Spinal Anesthetic Ephedrine Sulfate And Spinal Needle 25 Ga Catalog 4518 C E Custom Spinal Anesthesia Tray With Spinal Anesthetic And Spinal Needle 22 Ga Catalog 514504072 F Custom Anesthesia Tray With Spinal Anesthetic And Spinal Needle 25 Ga Catalog 6845141200</t>
+  </si>
+  <si>
+    <t>Baxter Healthcare Corporation</t>
+  </si>
+  <si>
+    <t>Becton Dickinson Franklin Lakes New Jersey Syringe</t>
+  </si>
+  <si>
+    <t>October 3 1994</t>
+  </si>
+  <si>
+    <t>There Is A Potential For Leaking To Occur At The Connection Between The 5 Cc Glass Syringe B D Glaspak 5293 And The Metal Hub Spinal Needle</t>
+  </si>
+  <si>
+    <t>16 493 Trays Were Distributed Firm Estimated That 30 Of The Product Remained On Market At Time Of Recall Initiation</t>
   </si>
   <si>
     <t>Nationwide And International</t>
@@ -280,56 +274,55 @@
     <t>z-438/439-5</t>
   </si>
   <si>
-    <t>Glutaraldehyde Disinfectant/sterilization Solution, In 1  Gallon Containers:  (a) Baxter Omnicide 14 N</t>
-  </si>
-  <si>
-    <t>Cottrell, Ltd</t>
-  </si>
-  <si>
-    <t>August 16, 1994</t>
-  </si>
-  <si>
-    <t>A Quantity Of Glutaraldehyde Product Containing A Surfactant  Was Inadvertently Pumped Into The Mixing Tank Dedicated To  The Production Of The Subject Products, Which Are Non-  Surfactant Glutaraldehyde Products</t>
-  </si>
-  <si>
-    <t>5,876 gallons were distributed; firm estimated that 5,200
- remained on market at time of recall initiation</t>
-  </si>
-  <si>
-    <t>Illinois, Pennsylvania, Virginia, Nebraska, Indiana</t>
+    <t>Glutaraldehyde Disinfectant Sterilization Solution In 1 Gallon Containers A Baxter Omnicide 14 N</t>
+  </si>
+  <si>
+    <t>Cottrell Ltd</t>
+  </si>
+  <si>
+    <t>August 16 1994</t>
+  </si>
+  <si>
+    <t>A Quantity Of Glutaraldehyde Product Containing A Surfactant Was Inadvertently Pumped Into The Mixing Tank Dedicated To The Production Of The Subject Products Which Are Non Surfactant Glutaraldehyde Product</t>
+  </si>
+  <si>
+    <t>5 876 Gallons Were Distributed Firm Estimated That 5 200 Remained On Market At Time Of Recall Initiation</t>
+  </si>
+  <si>
+    <t>Illinois Pennsylvania Virginia Nebraska Indiana</t>
   </si>
   <si>
     <t>z-454-5</t>
   </si>
   <si>
-    <t>Sechrist Model 2200b Ventilator, Indicated For The Delivery  Of Medical Grade Air And Oxygen To Adult/pediatric Patients</t>
-  </si>
-  <si>
-    <t>Sechrist Industries, Inc</t>
-  </si>
-  <si>
-    <t>March 1, 1994</t>
-  </si>
-  <si>
-    <t>Due To A Defective Voltage Monitor, The Product May Cease  Ventilation Without Audible And Visual Alarms</t>
-  </si>
-  <si>
-    <t>357 units were distributed</t>
+    <t>Sechrist Model 2200 B Ventilator Indicated For The Delivery Of Medical Grade Air And Oxygen To Adult Pediatric Patients</t>
+  </si>
+  <si>
+    <t>Sechrist Industries Inc</t>
+  </si>
+  <si>
+    <t>March 1 1994</t>
+  </si>
+  <si>
+    <t>Due To A Defective Voltage Monitor The Product May Cease Ventilation Without Audible And Visual Alarm</t>
+  </si>
+  <si>
+    <t>357 Units Were Distributed</t>
   </si>
   <si>
     <t>z-496-5</t>
   </si>
   <si>
-    <t>Sechrist Ventilator, Model 2200b, A Microprocessor  Controlled Ventilator, Indicated For The Delivery Of Medical  Grade Air And Oxygen To Adult/pediatric Patients</t>
-  </si>
-  <si>
-    <t>February 23, 1994</t>
-  </si>
-  <si>
-    <t>Leakage Caused By A Defective Refill Valve Results In An  Inaccurate Delivery Of Gas Volume And Pressure</t>
-  </si>
-  <si>
-    <t>79 units were distributed</t>
+    <t>Sechrist Ventilator Model 2200 B A Microprocessor Controlled Ventilator Indicated For The Delivery Of Medical Grade Air And Oxygen To Adult Pediatric Patients</t>
+  </si>
+  <si>
+    <t>February 23 1994</t>
+  </si>
+  <si>
+    <t>Leakage Caused By A Defective Refill Valve Results In An Inaccurate Delivery Of Gas Volume And Pressur</t>
+  </si>
+  <si>
+    <t>79 Units Were Distributed</t>
   </si>
   <si>
     <t>Idaho And International</t>
@@ -338,64 +331,67 @@
     <t>z-498/501-5</t>
   </si>
   <si>
-    <t>Respironics Brand Bipap 30 Ventilatory Support Systems, A  Non-continuous Ventilator For Non-life Support Applications:  (a) Model 552006 Bipap S/t-d30;  (b) Model 552045 Bipap S/t-d30;  (c) Model 552049 Bipap S/t-d30;  (d) Model 552052 Bipap S/t-d30</t>
-  </si>
-  <si>
-    <t>Respironics, Inc</t>
-  </si>
-  <si>
-    <t>January 9, 1995</t>
-  </si>
-  <si>
-    <t>Under Certain Conditions, The Interaction Between The  Spontaneous/times Mode And The Breaths Per Minute Control Of  The Affected Bipap S/t-d30 And S/t 30 Devices Results In The  Devices Operating Outside The Product Specifications</t>
-  </si>
-  <si>
-    <t>189 units were distributed</t>
-  </si>
-  <si>
-    <t>Nationwide, Taiwan, Spain, Netherlands, Kowloon, France,  Canada, The United Kingdom</t>
+    <t>Respironics Brand Bipap 30 Ventilatory Support Systems A Non Continuous Ventilator For Non Life Support Applications A Model 552006 Bipap S T D 30 B Model 552045 Bipap S T D 30 C Model 552049 Bipap S T D 30 D Model 552052 Bipap S T D 30</t>
+  </si>
+  <si>
+    <t>Respironics Inc</t>
+  </si>
+  <si>
+    <t>January 9 1995</t>
+  </si>
+  <si>
+    <t>Under Certain Conditions The Interaction Between The Spontaneous Times Mode And The Breaths Per Minute Control Of The Affected Bipap S T D 30 And S T 30 Devices Results In The Devices Operating Outside The Product Specification</t>
+  </si>
+  <si>
+    <t>189 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>Nationwide Taiwan Spain Netherlands Kowloon France Canada The United Kingdom</t>
   </si>
   <si>
     <t>z-497-5</t>
   </si>
   <si>
-    <t>High Frequency Oscillatory Neonatal Ventilator, Model 3100a,  Indicated For Ventilatory Support And Treatment Of  Respiratory Failure And Barotrauma In Neonates</t>
-  </si>
-  <si>
-    <t>Sensormedics Corporation, Yorba Linda, California</t>
-  </si>
-  <si>
-    <t>November 22, 1994</t>
-  </si>
-  <si>
-    <t>A Wire Next To The Metal Amplifier Bracket May Abrade, Due  To Vibration, Causing A Potential Electrical Shock Hazard</t>
-  </si>
-  <si>
-    <t>625 units were distributed</t>
-  </si>
-  <si>
-    <t>Nationwide, Australia, Canada, Hong Kong, Korea, Mexico,  Netherlands, Philippines, Singapore, Taiwan</t>
+    <t>High Frequency Oscillatory Neonatal Ventilator Model 3100 A Indicated For Ventilatory Support And Treatment Of Respiratory Failure And Barotrauma In Neonates</t>
+  </si>
+  <si>
+    <t>Sensormedics Corporation Yorba Linda California</t>
+  </si>
+  <si>
+    <t>November 22 1994</t>
+  </si>
+  <si>
+    <t>A Wire Next To The Metal Amplifier Bracket May Abrade Due To Vibration Causing A Potential Electrical Shock Hazar</t>
+  </si>
+  <si>
+    <t>625 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>Nationwide Australia Canada Hong Kong Korea Mexico Netherlands Philippines Singapore Taiwan</t>
   </si>
   <si>
     <t>z-510-5</t>
   </si>
   <si>
-    <t>Sharpe Endo Assist Endoscopic Knot Pusher, Product #87000,  Product Size 10 Mm, A Reusable Laparoscopic Device Used For  The Extracorporeal Tying Of Suture Knots</t>
-  </si>
-  <si>
-    <t>Sharpe Endosurgical Corporation, St</t>
-  </si>
-  <si>
-    <t>February 6, 1995</t>
-  </si>
-  <si>
-    <t>Plastic Pieces Of The Sheath (plastic Tube), That Covers The  Laparoscopic Mechanism Of The Device, Have Broken Off The  Distal End Of The Tube Which Enters The Patient's Body,  Potentially Allowing Pieces To Fall Into A Patient's Body  Cavity</t>
-  </si>
-  <si>
-    <t>62 units were distributed</t>
-  </si>
-  <si>
-    <t>Nationwide, Canada, England, France, Ireland, Japan</t>
+    <t>Sharpe Endo Assist Endoscopic Knot Pusher Product 87000 Product Size 10 Mm A Reusable Laparoscopic Device Used For The Extracorporeal Tying Of Suture Knots</t>
+  </si>
+  <si>
+    <t>Sharpe Endosurgical Corporation St</t>
+  </si>
+  <si>
+    <t>February 6 1995</t>
+  </si>
+  <si>
+    <t>Plastic Pieces Of The Sheath Plastic Tube That Covers The Laparoscopic Mechanism Of The Device Have Broken Off The Distal End Of The Tube Which Enters The Patient's Body Potentially Allowing Pieces To Fall Into A Patient's Body Cavit</t>
+  </si>
+  <si>
+    <t>62 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>Nationwide Canada England France Ireland Japan</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>z-511/515-5</t>
@@ -404,61 +400,152 @@
     <t>All Intervascular Inc</t>
   </si>
   <si>
-    <t>Intervascular, Inc</t>
-  </si>
-  <si>
-    <t>July 19, 1994</t>
-  </si>
-  <si>
-    <t>The Manufacturer Is Marketing The Device Without An Approved  Premarket Notification Submission (510k)</t>
-  </si>
-  <si>
-    <t>48 units</t>
-  </si>
-  <si>
-    <t>California, Illinois, Pennsylvania, Louisiana, Tennessee,  Mississippi, Florida, And International</t>
+    <t>Intervascular Inc</t>
+  </si>
+  <si>
+    <t>July 19 1994</t>
+  </si>
+  <si>
+    <t>The Manufacturer Is Marketing The Device Without An Approved Premarket Notification Submission 510 K</t>
+  </si>
+  <si>
+    <t>48 Units</t>
+  </si>
+  <si>
+    <t>California Illinois Pennsylvania Louisiana Tennessee Mississippi Florida And International</t>
   </si>
   <si>
     <t>z-521/533-5</t>
   </si>
   <si>
-    <t>Adult Expandable Breathing Circuits And All Products,   Including Various Anesthesia Kits As Components</t>
-  </si>
-  <si>
-    <t>Vital Signs, Totowa, New Jersey</t>
-  </si>
-  <si>
-    <t>February 2, 1994</t>
-  </si>
-  <si>
-    <t>Exposure To Extremely Cold Temperatures May Cause The  Expandable Tubing To Crack When Flexed</t>
-  </si>
-  <si>
-    <t>2,225 units were distributed</t>
-  </si>
-  <si>
-    <t>Alabama, California, Georgia, Illinois, Kansas, Kentucky,  North Carolina, Nebraska, New York, Texas, Washington State,  Wyoming</t>
+    <t>Adult Expandable Breathing Circuits And All Products Including Various Anesthesia Kits As Components</t>
+  </si>
+  <si>
+    <t>Vital Signs Totowa New Jersey</t>
+  </si>
+  <si>
+    <t>February 2 1994</t>
+  </si>
+  <si>
+    <t>Exposure To Extremely Cold Temperatures May Cause The Expandable Tubing To Crack When Flexe</t>
+  </si>
+  <si>
+    <t>2 225 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>Alabama California Georgia Illinois Kansas Kentucky North Carolina Nebraska New York Texas Washington State Wyoming</t>
+  </si>
+  <si>
+    <t>z-520-5</t>
+  </si>
+  <si>
+    <t>Beckman Synchron Cx 7 Clinical Analyzer Computer Enhanced Cx 4 Ce Cx 5 Ce Indicated For In Vitro Chemistry Testing</t>
+  </si>
+  <si>
+    <t>Beckman Instruments Inc</t>
+  </si>
+  <si>
+    <t>July 14 1995</t>
+  </si>
+  <si>
+    <t>Defective Software May Cause Patient Samples To Be Incorrectly Sampled Which May Cause Incorrect Patient Results To Be Reporte</t>
+  </si>
+  <si>
+    <t>1 553 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>z-534-5</t>
+  </si>
+  <si>
+    <t>Stratus Prolactin Fluorometric Enzyme Immunoassay Kit With Code 35 Values</t>
+  </si>
+  <si>
+    <t>Baxter Diagnostics Inc</t>
+  </si>
+  <si>
+    <t>September 24 1994</t>
+  </si>
+  <si>
+    <t>The Technical Bulletin Which Is Enclosed With This Kit Has Incorrect Code 35 Values For The Stratus Ii Users Which Causes The Assay To Be Unusabl</t>
+  </si>
+  <si>
+    <t>12 Kits Were Distributed</t>
+  </si>
+  <si>
+    <t>Texas West Virginia South Carolina Pennsylvania Ohio Nebraska Iowa Kansas Colorado Arizona Arkansas</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>z-535/538-5</t>
+  </si>
+  <si>
+    <t>Dade Ck Mb Myoglobin Immunoassay Control Level 1 Level 2 And Level 3 A Catalog B 5200 B 5200 S Sample B Catalog B 5200 1 C Catalog B 5200 2 D Catalog B 5200 3</t>
+  </si>
+  <si>
+    <t>January 24 1995</t>
+  </si>
+  <si>
+    <t>The Myoglobin Reconstituted Stability On Level Iii Maintains For Only Three Days After Reconstitutio</t>
+  </si>
+  <si>
+    <t>3 888 Kits Were Distributed</t>
+  </si>
+  <si>
+    <t>z-539-5</t>
+  </si>
+  <si>
+    <t>Insert States That The Reconstituted Product Is Stable For 14 Days When Stored At 2 To 8 Degrees Centigrade</t>
+  </si>
+  <si>
+    <t>Oxford Instruments Medical Systems</t>
+  </si>
+  <si>
+    <t>Oxford Instruments Ltd</t>
+  </si>
+  <si>
+    <t>A Faulty Capacitor In The Device Is Susceptible To Becoming Resistive Resulting In Inaccurate Blood Pressure Measurement</t>
+  </si>
+  <si>
+    <t>4 Units Were Distributed</t>
+  </si>
+  <si>
+    <t>California Canada Argentina</t>
+  </si>
+  <si>
+    <t>Lusee Tlc Steerable Guidewires Designed To Provide Maximum Torque Control And Steerability Enabling The Guidewire To Transverse Tortuous Vessels And Tight Stenoses A Lusee Plc Steerable Guidewire Soft Super Soft Standard Tip Flexibilities B 0</t>
+  </si>
+  <si>
+    <t>Cordis Corporation Miami Lakes Florida</t>
+  </si>
+  <si>
+    <t>Tip Fractures Have Been Reported In Procedures Involving Total Occlusions Highly Tortuous Vasculature And Interferring Small Side Branche</t>
+  </si>
+  <si>
+    <t>Frozen Scallops 95 745 218 Et Al</t>
+  </si>
+  <si>
+    <t>Of The Presence Therein Of Decomposed Scallop</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Bulk Spices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,9 +568,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,44 +598,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -579,12 +665,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -623,187 +709,241 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <dimension ref="A1:K33"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -955,31 +1095,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -990,31 +1130,31 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1028,28 +1168,28 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1060,31 +1200,31 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1092,34 +1232,34 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1127,34 +1267,34 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1162,34 +1302,34 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1197,34 +1337,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1232,34 +1372,34 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1267,34 +1407,34 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1302,34 +1442,34 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1337,34 +1477,34 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1372,34 +1512,34 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,38 +1547,528 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K19" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+      <c r="G23" t="s">
+        <v>163</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>171</v>
+      </c>
+      <c r="J25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
+      <c r="J26" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" t="s">
+        <v>126</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" t="s">
+        <v>126</v>
+      </c>
+      <c r="K30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" t="s">
+        <v>126</v>
+      </c>
+      <c r="K31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>126</v>
+      </c>
+      <c r="J32" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J33" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>